--- a/решения/WORLD.xlsx
+++ b/решения/WORLD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/private/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/решения/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2A44CB-0955-D84D-9BAA-D90A467B9F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DFA169-DF60-4143-9C4F-A25E7DFB279D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="7580" windowWidth="21580" windowHeight="12800" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
+    <workbookView xWindow="13000" yWindow="2200" windowWidth="32140" windowHeight="18400" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -418,6 +418,60 @@
   <si>
     <t>Cipro</t>
   </si>
+  <si>
+    <t>Океания</t>
+  </si>
+  <si>
+    <t>Océanie</t>
+  </si>
+  <si>
+    <t>Ozeanien</t>
+  </si>
+  <si>
+    <t>Oceanía</t>
+  </si>
+  <si>
+    <t>Азия</t>
+  </si>
+  <si>
+    <t>Asie</t>
+  </si>
+  <si>
+    <t>Ásia</t>
+  </si>
+  <si>
+    <t>Asien</t>
+  </si>
+  <si>
+    <t>Африка</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>África</t>
+  </si>
+  <si>
+    <t>Afrika</t>
+  </si>
+  <si>
+    <t>Европа</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Америка</t>
+  </si>
+  <si>
+    <t>Amérique</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>Amerika</t>
+  </si>
 </sst>
 </file>
 
@@ -786,9 +840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE97BFD-F36A-4E40-AD7D-EA1A19204B91}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,6 +885,24 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -839,6 +911,24 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -847,6 +937,24 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -855,12 +963,48 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1035,7 +1179,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:I1"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2413,7 +2557,9 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5">
+        <v>2</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -2485,7 +2631,9 @@
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5">
+        <v>2</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>

--- a/решения/WORLD.xlsx
+++ b/решения/WORLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reynikovanton/Desktop/APP/development/Locity/решения/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DFA169-DF60-4143-9C4F-A25E7DFB279D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B7E65C-929C-2542-BD79-055E0F95D69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="2200" windowWidth="32140" windowHeight="18400" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
+    <workbookView xWindow="13000" yWindow="2200" windowWidth="32140" windowHeight="18400" activeTab="1" xr2:uid="{7A1DAF9C-3E66-3A48-9BB9-B43E45C7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="1" r:id="rId1"/>
@@ -840,9 +840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE97BFD-F36A-4E40-AD7D-EA1A19204B91}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,9 +1177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC1B24-763A-458E-B6D6-B0F23F0AB5F5}">
   <dimension ref="A1:AZ332"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
